--- a/Field_Data/PLM_noblegas_2021.xlsx
+++ b/Field_Data/PLM_noblegas_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasthiros/Documents/SCGSR/Age_Modeling/Field_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/christoph_west_bwedu_de/Documents/Studium/Masterarbeit/Daten-Colorado/NobleGas_RTD_MCMC/NobleGas_RTD_MCMC/Field_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32523795-0018-D04E-9F2E-F0BE19421B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32523795-0018-D04E-9F2E-F0BE19421B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E62BC22E-D54F-40BB-B691-BF9AD5B04EDF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{3A151785-E07D-1C41-82EC-200EC92AAFEB}"/>
+    <workbookView minimized="1" xWindow="1140" yWindow="1140" windowWidth="8900" windowHeight="7420" xr2:uid="{3A151785-E07D-1C41-82EC-200EC92AAFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>Percent Errors from Visser et.al. 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ar</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -628,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,22 +701,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9E247784-A0CF-D44F-BCAC-C2301561546D}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,9 +729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -769,7 +769,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -875,7 +875,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1017,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1025,14 +1025,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D4E743-805C-7F45-98A0-8A07BFB9AF24}">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -1052,7 +1052,7 @@
     <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="16.5">
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="19.5">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -1177,11 +1177,11 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>44320</v>
       </c>
       <c r="C3" s="21">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>44324</v>
       </c>
       <c r="C4" s="21">
@@ -1339,11 +1339,11 @@
       </c>
       <c r="AC4" s="10"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>44320</v>
       </c>
       <c r="C5" s="21">
@@ -1420,11 +1420,11 @@
       </c>
       <c r="AC5" s="10"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>44321</v>
       </c>
       <c r="C6" s="21">
@@ -1501,11 +1501,11 @@
       </c>
       <c r="AC6" s="10"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>44321</v>
       </c>
       <c r="C7" s="21">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="AC7" s="10"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1613,29 +1613,29 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="1">
         <v>1.5</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="29">
+      <c r="G9" s="1">
         <v>1.5</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="29">
+      <c r="I9" s="1">
         <v>2.5</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="29">
+      <c r="K9" s="1">
         <v>3.1</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="29">
+      <c r="M9" s="1">
         <v>3.5</v>
       </c>
       <c r="O9" s="7"/>
@@ -1655,7 +1655,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1685,7 +1685,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1715,7 +1715,7 @@
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
     </row>
-    <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="16.5">
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="16.5">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="16.5">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
       <c r="D19" s="7"/>
@@ -1890,7 +1890,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24">
       <c r="B20" s="27" t="s">
         <v>41</v>
       </c>
@@ -1911,7 +1911,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24">
       <c r="B21" s="28" t="s">
         <v>42</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24">
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="E22" s="17"/>
@@ -1956,7 +1956,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24">
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -1970,7 +1970,7 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24">
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -1984,7 +1984,7 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24">
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -1998,6 +1998,11 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
     </row>
+    <row r="40" spans="8:8">
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
